--- a/data/descricao_bases.xlsx
+++ b/data/descricao_bases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>PIB - preços de mercado</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Salário mínimo real</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>PIB - preços de mercado</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Salário mínimo real</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>SCN10_PIBN10</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>GAC12_SALMINRE12</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -615,6 +630,11 @@
           <t>Macroeconômico</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Macroeconômico</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -646,6 +666,9 @@
       <c r="I5" t="n">
         <v>8</v>
       </c>
+      <c r="J5" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -693,6 +716,11 @@
           <t>Instituto Brasileiro de Geografia e Estatística, Sistema de Contas Nacionais (IBGE/SCN Anual)</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Instituto de Pesquisa Econômica Aplicada</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -740,6 +768,11 @@
           <t>IBGE/SCN Anual</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>IPEA</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -787,6 +820,13 @@
           <t>O produto interno bruto (PIB) é o total dos bens e serviços produzidos pelas unidades produtoras residentes destinados ao consumo final sendo, portanto, equivalente à soma dos valores adicionados pelas diversas atividades econômicas acrescida dos impostos, líquidos de subsídios, sobre produtos. O PIB também é equivalente à soma dos consumos finais de bens e serviços valorados a preço de mercado sendo, também, equivalente à soma das rendas primárias.  Fontes: Para 2022 e 2021, resultados preliminares estimados a partir das Contas Nacionais Trimestrais Referência 2010. Para valores a partir de 2000, Sistema de Contas Nacionais Referência 2010. Para 1995-1999, resultados estimados a partir das Contas Nacionais Trimestrais Referência 2010. Para 1990-1994, Sistema de Contas Nacionais Referência 1985. Para 1947-1989, Sistema de Contas Nacionais Consolidadas. Para 1900-1946, elaboração IPEA a partir da variação anual do deflator implícito do PIB e variação real anual do PIB. Elaboração Ipeadata: Para dados a partir do ano de 1900 foi realizada uma concatenação com base nas diferentes fontes mencionadas anteriormente. Nota: As informações sobre as séries do Sistema de Contas Nacionais - referência 2010 estão em conformidade com o novo manual System of National Accounts (SNA) de 2008, da Organização das Nações Unidas (ONU), que inclui, entre outras mudanças metodológicas, a nova classificação de produtos e atividades integrada com a Classificação Nacional de Atividades Econômicas - CNAE 2.0. Mais informações: &lt;a href="../doc/SCN10-conceitos.pdf"&gt;Sistema de Contas Nacionais Brasil &lt;/a&gt;.</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>O Salário mínimo nominal é o menor salário definido por lei para remuneração do trabalhador brasileiro. O salário minimo real é o valor do salário mínimo nominal abatido o percentual de inflação do mês, o qual é medido através de diferentes índices de preço.   Nota: 1)Série em reais (R$) constantes do último mês, elaborada pelo IPEA, deflacionando-se o salário mínimo nominal pelo Índice Nacional de Preços ao Consumidor (INPC) do IBGE a partir de março de 1979. Para períodos anteriores, os deflatores utilizados foram o IGPC-Mtb (jan/1948-mar/1979), o IPC-RJ/FGV (jan/1944-jan/1948) e o IPC-SP/Fipe (jul/1940-jan/1944).
+2) Em julho de 1994 o deflator sofre um ajuste em função da mudança de unidade monetária de cruzeiros reais para reais. A inflação do INPC em julho foi medida comparando os preços em reais de julho com os preços em cruzeiros reais de junho convertidos para URV (Unidade Real de Valor) no dia em que foram coletados. Já a variação do salário mínimo é medida pelo valor do salário de julho em reais pelo salário de junho em cruzeiros reais convertido pela URV do último dia de junho, e não pela taxa média de junho. Dessa forma, o valor do salário mínimo em reais de junho fica subestimado, e a variação do salário mínimo entre junho e julho é bem maior do que a inflação em reais no mesmo período. Para eliminar esta diferença, a variação do deflator em julho foi multiplicada por 1,23.
+ 3)O salário mínimo urbano foi instituído no Brasil por decreto-lei do presidente Getúlio Vargas, durante a ditadura do Estado Novo, e começou a vigorar em julho de 1940, com valores diferenciados entre estados e sub-regiões. Em 1943, foi incorporado à Consolidação das Leis do Trabalho (CLT) e, em 1963, foi estendido ao campo por meio do Estatuto do Trabalhador Rural. Foi nacionalmente unificado em maio de 1984, mas, desde 2000, a Lei Complementar 103 permite que os estados fixem pisos estaduais superiores ao mínimo nacional. Os dados desta série para o período em que a legislação federal definia faixas diversificadas referem-se sempre ao maior salário mínimo vigente no país. Quanto ao período anterior à unificação, ver:Mais informações: Constituição Federal (Art. 7º). Mais informações: &lt;a href="../doc/Corseuil2002.pdf"&gt;Uma sugestão de deflatores&lt;/a&gt;.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -834,6 +874,11 @@
           <t>2023-03-02T17:16:01-03:00</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2023-09-12T11:36:00.637-03:00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -881,6 +926,11 @@
           <t>Anual</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Mensal</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -926,6 +976,11 @@
       <c r="I11" t="inlineStr">
         <is>
           <t>R$</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>R$ (do último mês)</t>
         </is>
       </c>
     </row>
@@ -967,6 +1022,11 @@
           <t>milhões</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1010,6 +1070,11 @@
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>A</t>
         </is>

--- a/data/descricao_bases.xlsx
+++ b/data/descricao_bases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Meio de pagamento restrito -M1 - fim de período</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>M3 - depósitos em poupança - fim período - INATIVA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>IGP-DI</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Taxa de câmbio - R$ / US$ - comercial - compra - fim período</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Dívida externa - registrada - INATIVA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>PIB - indústria</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PIB - preços de mercado</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>PIB - preços de mercado</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Salário mínimo real</t>
         </is>
@@ -503,30 +518,45 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Meio de pagamento restrito -M1 - fim de período</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>M3 - depósitos em poupança - fim período - INATIVA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>IGP-DI</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Taxa de câmbio - R$ / US$ - comercial - compra - fim período</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Dívida externa - registrada - INATIVA</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>PIB - indústria</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>PIB - preços de mercado</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>PIB - preços de mercado</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Salário mínimo real</t>
         </is>
@@ -555,30 +585,45 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>BM_M1FN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BM_DEPOU</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>IGP_IGPDIG</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>BM_ERCF</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>BM_DEXR</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>SCN10_VAINDN10</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>SCN10_PIBN10</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SCN10_PIBN10</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>GAC12_SALMINRE12</t>
         </is>
@@ -635,6 +680,21 @@
           <t>Macroeconômico</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Macroeconômico</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Macroeconômico</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Macroeconômico</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -652,21 +712,30 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
         <v>9</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>10</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>8</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
         <v>13</v>
       </c>
     </row>
@@ -693,30 +762,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Banco Central do Brasil, Notas Econômico-financeiras para a Imprensa, Política Monetária e Operações de Crédito do SFN (Bacen/Notas Imprensa/Moeda)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Banco Central do Brasil, Notas Econômico-financeiras para a Imprensa, Política Monetária e Operações de Crédito do SFN (Bacen/Notas Imprensa/Moeda)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Fundação Getulio Vargas, Conjuntura Econômica - IGP (FGV/Conj. Econ. - IGP)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Banco Central do Brasil, Boletim, Seção Balanço de Pagamentos (Bacen / Boletim / BP)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Banco Central do Brasil, Boletim, Seção Balanço de Pagamentos (Bacen / Boletim / BP)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Instituto Brasileiro de Geografia e Estatística, Sistema de Contas Nacionais (IBGE/SCN Anual)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Instituto Brasileiro de Geografia e Estatística, Sistema de Contas Nacionais (IBGE/SCN Anual)</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Instituto Brasileiro de Geografia e Estatística, Sistema de Contas Nacionais (IBGE/SCN Anual)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Instituto de Pesquisa Econômica Aplicada</t>
         </is>
@@ -745,30 +829,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Bacen/Notas Imprensa/Moeda</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bacen/Notas Imprensa/Moeda</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>FGV/Conj. Econ. - IGP</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bacen/Boletim/BP</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Bacen/Boletim/BP</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>IBGE/SCN Anual</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>IBGE/SCN Anual</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>IBGE/SCN Anual</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>IPEA</t>
         </is>
@@ -797,30 +896,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>O M1, gerado pelas instituições emissoras de haveres monetários, corresponde à soma do papel-moeda em poder do público e dos depósitos à vista. O papel-moeda em poder do público é obtido ao diminuir do papel-moeda emitido o caixa do sistema bancário. Nota: na série anterior a esta, o Banco Central não incluia nos saldos de depósitos à vista os depósitos captados pelas cooperativas de crédito. Após a exigência de que as cooperativas publiquem seus dados contáveis mensalmente, o BC incorporou os tais depósitos na série. Mais informações: &lt;a href="../doc/NT 48_Dstat_Dimob_novembro_2018.pdf"&gt; Nota Técnica do Banco Central do Brasil nª48&lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Quadro: Meios de pagamento (M4) - saldos.  Obs.: Refere-se apenas à parcela dos depósitos de poupança em M3.  Série interrompida.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>O Índice Geral de Preços (IGP) registra o ritmo evolutivo de preços como medida síntese da inflação nacional. Apresenta-se em três versões: Índice Geral de Preços - 10 (IGP-10), Índice Geral de Preços do Mercado (IGP-M) e Índice Geral de Preços – Disponibilidade Interna (IGP-DI). A diferença entre eles está no período de apuração das informações para cálculo do índice. O Índice Geral de Preços - Disponibilidade Interna (IGP-DI) é um indicador do movimento de preços que cobre todo o processo produtivo, desde preços de matérias-primas agrícolas e industriais, passando pelos preços de produtos intermediários até os de bens e serviços finais. É composto pela média aritmética ponderada do Índice de Preços ao Produtor Amplo (IPA) (60%), do Índice de Preços ao Consumidor (IPC) (30%) e do Índice Nacional de Custo da Construção (INCC) (10%). Para efeito de coleta de preços, o IGP-DI mede a evolução de preços no período compreendido entre o primeiro ao último dia do mês de referência. O conceito de Disponibilidade Interna (DI) refere-se à produção nacional e às importações, excluindo as exportações.  Mais informações:  &lt;a href="../doc/METODOLOGIA IGP-DI.pdf"&gt;Metodologia IGP-DI&lt;/a&gt; e "Contabilidade Social", Feijó &amp; Ramos, 4ª ed. Revisada e Ampliada.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Taxa de câmbio é o preço de uma moeda estrangeira medido em unidades ou frações (centavos) da moeda nacional. Neste caso a moeda estrangeira é o dólar. Cotações para contabilidade. Mais informações: SGS - Sistema de Gerenciamento de Séries Temporais, Banco Central.</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Para 1889-1945: Abreu, Marcelo de Paiva (Org.). A ordem do progresso - cem anos de política econômica republicana. Rio de Janeiro: Campus, 1992. Obs.: A partir de mar. 2001, exclui empréstimos intercompanhias (retroativo a 2000) e contempla revisão na posição de endividamento. Compreende o setor público financeiro e não financeiro e o setor privado. Série interrompida.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>O produto interno bruto (PIB) é o total dos bens e serviços produzidos pelas unidades produtoras residentes destinados ao consumo final sendo, portanto, equivalente à soma dos valores adicionados pelas diversas atividades econômicas acrescida dos impostos, líquidos de subsídios, sobre produtos. O PIB também é equivalente à soma dos consumos finais de bens e serviços valorados a preço de mercado sendo, também, equivalente à soma das rendas primárias. O setor indústria refere-se ao cálculo do PIB pela ótica contábil da produção e compreende todas as atividades econômicas investigadas pela Pesquisa Industrial Anual - Empresa, PIA-Empresa (Indústrias extrativas e de transformação) e pela Pesquisa Anual da Indústria da Construção - PAIC, ambas realizadas pelo IBGE, acrescentando-se ainda os serviços de Produção e distribuição de eletricidade e gás, água, esgoto e limpeza urbana provenientes da DIPJ.  Fontes: Para 2022 e 2021, resultados preliminares estimados a partir das Contas Nacionais Trimestrais Referência 2010. Para valores a partir de 2000, Sistema de Contas Nacionais Referência 2010. Para 1995-1999, resultados estimados a partir das Contas Nacionais Trimestrais Referência 2010. Para 1990-1994, Sistema de Contas Nacionais Referência 1985. Para 1947-1989, Sistema de Contas Nacionais Consolidadas. Elaboração Ipeadata: Para dados a partir do ano de 1947 foi realizada uma concatenação com base nas diferentes fontes mencionadas anteriormente. Nota: As informações sobre as séries do Sistema de Contas Nacionais - referência 2010 estão em conformidade com o novo manual System of National Accounts (SNA) de 2008, da Organização das Nações Unidas (ONU), que inclui, entre outras mudanças metodológicas, a nova classificação de produtos e atividades integrada com a Classificação Nacional de Atividades Econômicas - CNAE 2.0. Mais informações: &lt;a href="../doc/SCN10-conceitos.pdf"&gt;Sistema de Contas Nacionais Brasil &lt;/a&gt;.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>O produto interno bruto (PIB) é o total dos bens e serviços produzidos pelas unidades produtoras residentes destinados ao consumo final sendo, portanto, equivalente à soma dos valores adicionados pelas diversas atividades econômicas acrescida dos impostos, líquidos de subsídios, sobre produtos. O PIB também é equivalente à soma dos consumos finais de bens e serviços valorados a preço de mercado sendo, também, equivalente à soma das rendas primárias.  Fontes: Para 2022 e 2021, resultados preliminares estimados a partir das Contas Nacionais Trimestrais Referência 2010. Para valores a partir de 2000, Sistema de Contas Nacionais Referência 2010. Para 1995-1999, resultados estimados a partir das Contas Nacionais Trimestrais Referência 2010. Para 1990-1994, Sistema de Contas Nacionais Referência 1985. Para 1947-1989, Sistema de Contas Nacionais Consolidadas. Para 1900-1946, elaboração IPEA a partir da variação anual do deflator implícito do PIB e variação real anual do PIB. Elaboração Ipeadata: Para dados a partir do ano de 1900 foi realizada uma concatenação com base nas diferentes fontes mencionadas anteriormente. Nota: As informações sobre as séries do Sistema de Contas Nacionais - referência 2010 estão em conformidade com o novo manual System of National Accounts (SNA) de 2008, da Organização das Nações Unidas (ONU), que inclui, entre outras mudanças metodológicas, a nova classificação de produtos e atividades integrada com a Classificação Nacional de Atividades Econômicas - CNAE 2.0. Mais informações: &lt;a href="../doc/SCN10-conceitos.pdf"&gt;Sistema de Contas Nacionais Brasil &lt;/a&gt;.</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>O produto interno bruto (PIB) é o total dos bens e serviços produzidos pelas unidades produtoras residentes destinados ao consumo final sendo, portanto, equivalente à soma dos valores adicionados pelas diversas atividades econômicas acrescida dos impostos, líquidos de subsídios, sobre produtos. O PIB também é equivalente à soma dos consumos finais de bens e serviços valorados a preço de mercado sendo, também, equivalente à soma das rendas primárias.  Fontes: Para 2022 e 2021, resultados preliminares estimados a partir das Contas Nacionais Trimestrais Referência 2010. Para valores a partir de 2000, Sistema de Contas Nacionais Referência 2010. Para 1995-1999, resultados estimados a partir das Contas Nacionais Trimestrais Referência 2010. Para 1990-1994, Sistema de Contas Nacionais Referência 1985. Para 1947-1989, Sistema de Contas Nacionais Consolidadas. Para 1900-1946, elaboração IPEA a partir da variação anual do deflator implícito do PIB e variação real anual do PIB. Elaboração Ipeadata: Para dados a partir do ano de 1900 foi realizada uma concatenação com base nas diferentes fontes mencionadas anteriormente. Nota: As informações sobre as séries do Sistema de Contas Nacionais - referência 2010 estão em conformidade com o novo manual System of National Accounts (SNA) de 2008, da Organização das Nações Unidas (ONU), que inclui, entre outras mudanças metodológicas, a nova classificação de produtos e atividades integrada com a Classificação Nacional de Atividades Econômicas - CNAE 2.0. Mais informações: &lt;a href="../doc/SCN10-conceitos.pdf"&gt;Sistema de Contas Nacionais Brasil &lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>O Salário mínimo nominal é o menor salário definido por lei para remuneração do trabalhador brasileiro. O salário minimo real é o valor do salário mínimo nominal abatido o percentual de inflação do mês, o qual é medido através de diferentes índices de preço.   Nota: 1)Série em reais (R$) constantes do último mês, elaborada pelo IPEA, deflacionando-se o salário mínimo nominal pelo Índice Nacional de Preços ao Consumidor (INPC) do IBGE a partir de março de 1979. Para períodos anteriores, os deflatores utilizados foram o IGPC-Mtb (jan/1948-mar/1979), o IPC-RJ/FGV (jan/1944-jan/1948) e o IPC-SP/Fipe (jul/1940-jan/1944).
 2) Em julho de 1994 o deflator sofre um ajuste em função da mudança de unidade monetária de cruzeiros reais para reais. A inflação do INPC em julho foi medida comparando os preços em reais de julho com os preços em cruzeiros reais de junho convertidos para URV (Unidade Real de Valor) no dia em que foram coletados. Já a variação do salário mínimo é medida pelo valor do salário de julho em reais pelo salário de junho em cruzeiros reais convertido pela URV do último dia de junho, e não pela taxa média de junho. Dessa forma, o valor do salário mínimo em reais de junho fica subestimado, e a variação do salário mínimo entre junho e julho é bem maior do que a inflação em reais no mesmo período. Para eliminar esta diferença, a variação do deflator em julho foi multiplicada por 1,23.
@@ -851,30 +965,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>2023-06-01T18:43:59-03:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2003-08-19T12:43:06-03:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>2023-01-06T15:12:01.24-03:00</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>2023-01-02T14:40:00-03:00</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>2009-06-26T16:30:13-03:00</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>2023-03-02T17:16:01-03:00</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>2023-03-02T17:16:01-03:00</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2023-03-02T17:16:01-03:00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>2023-09-12T11:36:00.637-03:00</t>
         </is>
@@ -928,6 +1057,21 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>Mensal</t>
         </is>
       </c>
@@ -955,30 +1099,45 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>R$</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>R$</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>(% a.a.)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>R$</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>US$</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>R$</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>R$</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>R$</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>R$ (do último mês)</t>
         </is>
@@ -1005,24 +1164,39 @@
           <t>milhões</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>milhões</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>milhões</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>milhões</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
+        <is>
+          <t>milhões</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>milhões</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>milhões</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1056,25 +1230,40 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
